--- a/test/pivot_tables_zhanshituiguang.xlsx
+++ b/test/pivot_tables_zhanshituiguang.xlsx
@@ -497,7 +497,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Y1038-BU</t>
@@ -511,7 +515,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Y1038-GL</t>
@@ -525,7 +533,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -539,7 +551,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -553,7 +569,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -567,7 +587,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -581,7 +605,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -595,7 +623,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -609,7 +641,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -623,7 +659,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -637,7 +677,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Y1058</t>
@@ -651,7 +695,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -665,7 +713,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -679,7 +731,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Y1060-BL</t>
@@ -693,7 +749,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR</t>
@@ -707,7 +767,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -721,7 +785,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Y1060-ZH-</t>
@@ -735,7 +803,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Y1061</t>
@@ -749,7 +821,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Y1071-BG</t>
@@ -763,7 +839,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Y1071-BL</t>
@@ -777,7 +857,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>Y1071-MG</t>
@@ -791,7 +875,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -805,7 +893,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Y1073-BG</t>
@@ -819,7 +911,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Y1074-BG</t>
@@ -833,7 +929,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Y1074-BL</t>
@@ -847,7 +947,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Y1074-MG</t>
@@ -861,7 +965,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Y1075-BG</t>
@@ -875,7 +983,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Y1075-BL</t>
@@ -889,7 +1001,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Y1075-MG</t>
@@ -903,7 +1019,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Y1075-RE</t>
@@ -917,7 +1037,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Y1076-BG</t>
@@ -931,7 +1055,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -945,7 +1073,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Y1076-MG</t>
@@ -959,7 +1091,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Y1076-RE</t>
@@ -973,7 +1109,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
           <t>Y1076-WH</t>
@@ -987,7 +1127,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Y1078-BL</t>
@@ -1001,7 +1145,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Y1078-GRA</t>
@@ -1015,7 +1163,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -1029,7 +1181,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -1043,7 +1199,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Y1081-BG</t>
@@ -1057,7 +1217,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -1071,7 +1235,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Y1081-WH</t>
@@ -1085,7 +1253,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -1099,7 +1271,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -1113,7 +1289,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -1127,7 +1307,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -1141,7 +1325,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -1155,7 +1343,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -1169,7 +1361,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -1183,7 +1379,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -1197,7 +1397,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -1211,7 +1415,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -1225,7 +1433,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -1239,7 +1451,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
           <t>Y1097-RE</t>
@@ -1253,7 +1469,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
           <t>Y1099</t>
@@ -1267,7 +1487,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -1281,7 +1505,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
           <t>Y1100-GA</t>
@@ -1295,7 +1523,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
           <t>Y1100-RE</t>
@@ -1309,7 +1541,11 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -1323,7 +1559,11 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -1337,7 +1577,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
           <t>Y1104</t>
@@ -1351,9 +1595,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A64"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -1413,7 +1654,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Y1038-BU</t>
@@ -1427,7 +1672,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Y1038-GL</t>
@@ -1441,7 +1690,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -1455,7 +1708,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -1469,7 +1726,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -1483,7 +1744,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -1497,7 +1762,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -1511,7 +1780,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Y1055-ZH</t>
@@ -1525,7 +1798,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -1539,7 +1816,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -1553,7 +1834,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -1567,7 +1852,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Y1058</t>
@@ -1581,7 +1870,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -1595,7 +1888,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Y1059-BL</t>
@@ -1609,7 +1906,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -1623,7 +1924,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Y1060-BL</t>
@@ -1637,7 +1942,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR</t>
@@ -1651,7 +1960,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -1665,7 +1978,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Y1060-ZH-</t>
@@ -1679,7 +1996,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Y1061</t>
@@ -1693,7 +2014,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -1707,7 +2032,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -1721,7 +2050,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Y1065-GA</t>
@@ -1735,7 +2068,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -1749,7 +2086,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -1763,7 +2104,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -1777,7 +2122,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Y1071-BG</t>
@@ -1791,7 +2140,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Y1071-BL</t>
@@ -1805,7 +2158,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Y1071-MG</t>
@@ -1819,7 +2176,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Y1071-RE</t>
@@ -1833,7 +2194,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -1847,7 +2212,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Y1073-BG</t>
@@ -1861,7 +2230,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Y1074-BG</t>
@@ -1875,7 +2248,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Y1074-BL</t>
@@ -1889,7 +2266,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
           <t>Y1074-MG</t>
@@ -1903,7 +2284,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Y1075-BG</t>
@@ -1917,7 +2302,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Y1075-BL</t>
@@ -1931,7 +2320,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Y1075-MG</t>
@@ -1945,7 +2338,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Y1075-RE</t>
@@ -1959,7 +2356,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Y1076-BG</t>
@@ -1973,7 +2374,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -1987,7 +2392,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Y1076-MG</t>
@@ -2001,7 +2410,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Y1076-RE</t>
@@ -2015,7 +2428,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Y1076-WH</t>
@@ -2029,7 +2446,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Y1078-BL</t>
@@ -2043,7 +2464,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>Y1078-GRA</t>
@@ -2057,7 +2482,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -2071,7 +2500,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -2085,7 +2518,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
           <t>Y1080-BU</t>
@@ -2099,7 +2536,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
           <t>Y1080-GR</t>
@@ -2113,7 +2554,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
           <t>Y1080-GRA</t>
@@ -2127,7 +2572,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
           <t>Y1081-BG</t>
@@ -2141,7 +2590,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
           <t>Y1081-BL</t>
@@ -2155,7 +2608,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -2169,7 +2626,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
           <t>Y1081-WH</t>
@@ -2183,7 +2644,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
           <t>Y1082</t>
@@ -2197,7 +2662,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -2211,7 +2680,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -2225,7 +2698,11 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -2239,7 +2716,11 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -2253,7 +2734,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
           <t>Y1086</t>
@@ -2267,7 +2752,11 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -2281,7 +2770,11 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -2295,7 +2788,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -2309,7 +2806,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -2323,7 +2824,11 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
           <t>Y1090</t>
@@ -2337,7 +2842,11 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
           <t>Y1094-RE</t>
@@ -2351,7 +2860,11 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -2365,7 +2878,11 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -2379,7 +2896,11 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
           <t>Y1096</t>
@@ -2393,7 +2914,11 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -2407,7 +2932,11 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -2421,7 +2950,11 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
           <t>Y1097-RE</t>
@@ -2435,7 +2968,11 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
           <t>Y1099</t>
@@ -2449,7 +2986,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -2463,7 +3004,11 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
           <t>Y1100-GA</t>
@@ -2477,7 +3022,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
           <t>Y1100-RE</t>
@@ -2491,7 +3040,11 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -2505,7 +3058,11 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -2519,7 +3076,11 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
           <t>Y1104</t>
@@ -2533,9 +3094,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A83"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -2595,7 +3153,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Y1038-BU</t>
@@ -2609,7 +3171,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Y1038-GL</t>
@@ -2623,7 +3189,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -2637,7 +3207,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -2651,7 +3225,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -2665,7 +3243,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -2679,7 +3261,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -2693,7 +3279,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Y1055-ZH</t>
@@ -2707,7 +3297,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -2721,7 +3315,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -2735,7 +3333,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -2749,7 +3351,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Y1058</t>
@@ -2763,7 +3369,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -2777,7 +3387,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Y1059-BL</t>
@@ -2791,7 +3405,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -2805,7 +3423,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Y1060-BL</t>
@@ -2819,7 +3441,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR</t>
@@ -2833,7 +3459,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -2847,7 +3477,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Y1060-ZH-</t>
@@ -2861,7 +3495,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Y1061</t>
@@ -2875,7 +3513,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -2889,7 +3531,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -2903,7 +3549,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Y1065-GA</t>
@@ -2917,7 +3567,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -2931,7 +3585,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -2945,7 +3603,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -2959,7 +3621,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Y1071-BG</t>
@@ -2973,7 +3639,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>Y1071-BL</t>
@@ -2987,7 +3657,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Y1071-MG</t>
@@ -3001,7 +3675,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Y1071-RE</t>
@@ -3015,7 +3693,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -3029,7 +3711,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>Y1073-BG</t>
@@ -3043,7 +3729,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Y1074-BG</t>
@@ -3057,7 +3747,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>Y1074-BL</t>
@@ -3071,7 +3765,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
           <t>Y1074-MG</t>
@@ -3085,7 +3783,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Y1075-BG</t>
@@ -3099,7 +3801,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Y1075-BL</t>
@@ -3113,7 +3819,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>Y1075-MG</t>
@@ -3127,7 +3837,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>Y1075-RE</t>
@@ -3141,7 +3855,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Y1076-BG</t>
@@ -3155,7 +3873,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -3169,7 +3891,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Y1076-MG</t>
@@ -3183,7 +3909,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>Y1076-RE</t>
@@ -3197,7 +3927,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>Y1076-WH</t>
@@ -3211,7 +3945,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Y1078-BL</t>
@@ -3225,7 +3963,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>Y1078-GRA</t>
@@ -3239,7 +3981,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -3253,7 +3999,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -3267,7 +4017,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
           <t>Y1080-BU</t>
@@ -3281,7 +4035,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
           <t>Y1080-GR</t>
@@ -3295,7 +4053,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
           <t>Y1080-GRA</t>
@@ -3309,7 +4071,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
           <t>Y1081-BG</t>
@@ -3323,7 +4089,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
           <t>Y1081-BL</t>
@@ -3337,7 +4107,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -3351,7 +4125,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
           <t>Y1081-WH</t>
@@ -3365,7 +4143,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
           <t>Y1082</t>
@@ -3379,7 +4161,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -3393,7 +4179,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -3407,7 +4197,11 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -3421,7 +4215,11 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -3435,7 +4233,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
           <t>Y1086</t>
@@ -3449,7 +4251,11 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -3463,7 +4269,11 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -3477,7 +4287,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -3491,7 +4305,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -3505,7 +4323,11 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
           <t>Y1090</t>
@@ -3519,7 +4341,11 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
           <t>Y1094-RE</t>
@@ -3533,7 +4359,11 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -3547,7 +4377,11 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -3561,7 +4395,11 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
           <t>Y1096</t>
@@ -3575,7 +4413,11 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -3589,7 +4431,11 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -3603,7 +4449,11 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
           <t>Y1097-RE</t>
@@ -3617,7 +4467,11 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
           <t>Y1099</t>
@@ -3631,7 +4485,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -3645,7 +4503,11 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
           <t>Y1100-GA</t>
@@ -3659,7 +4521,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
           <t>Y1100-RE</t>
@@ -3673,7 +4539,11 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -3687,7 +4557,11 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -3701,7 +4575,11 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
           <t>Y1104</t>
@@ -3715,9 +4593,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A83"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>